--- a/misc/relationalTableDraftThree.xlsx
+++ b/misc/relationalTableDraftThree.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TONRIN\Project2-Group2\misc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sarah\Project2-Group2\misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88B565D8-16EF-4237-A330-ADE8277C516F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" activeTab="1" xr2:uid="{DE93122A-39FD-43C1-B58C-913B640B1595}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
     <sheet name="Managers" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="108">
   <si>
     <t>ToyName</t>
   </si>
@@ -296,11 +296,80 @@
   <si>
     <t>Others</t>
   </si>
+  <si>
+    <t>Category Table</t>
+  </si>
+  <si>
+    <t>CategoryName</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Manufacture Table</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID </t>
+  </si>
+  <si>
+    <t>ManufactureName</t>
+  </si>
+  <si>
+    <t>Toy Table</t>
+  </si>
+  <si>
+    <t>Toy Name</t>
+  </si>
+  <si>
+    <t>Toy Description</t>
+  </si>
+  <si>
+    <t>ManID</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Rating</t>
+  </si>
+  <si>
+    <t>AgeTable</t>
+  </si>
+  <si>
+    <t>Order Table</t>
+  </si>
+  <si>
+    <t>OrderID</t>
+  </si>
+  <si>
+    <t>User Name</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Question1</t>
+  </si>
+  <si>
+    <t>Question2</t>
+  </si>
+  <si>
+    <t>Question3</t>
+  </si>
+  <si>
+    <t>Question4</t>
+  </si>
+  <si>
+    <t>Question5</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -402,7 +471,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -422,6 +491,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -735,7 +805,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71E226B4-7500-47E5-9915-4F1F8DA11008}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B6:Q20"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -1308,11 +1378,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21FAB0BC-2A27-41BA-BAA6-5CB144566B5E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:R27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1977,4 +2047,126 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:N16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="14" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F11" t="s">
+        <v>95</v>
+      </c>
+      <c r="G11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H11" t="s">
+        <v>96</v>
+      </c>
+      <c r="I11" t="s">
+        <v>97</v>
+      </c>
+      <c r="J11" t="s">
+        <v>103</v>
+      </c>
+      <c r="K11" t="s">
+        <v>104</v>
+      </c>
+      <c r="L11" t="s">
+        <v>105</v>
+      </c>
+      <c r="M11" t="s">
+        <v>106</v>
+      </c>
+      <c r="N11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>99</v>
+      </c>
+      <c r="B16" t="s">
+        <v>100</v>
+      </c>
+      <c r="C16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D16" t="s">
+        <v>102</v>
+      </c>
+      <c r="E16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/misc/relationalTableDraftThree.xlsx
+++ b/misc/relationalTableDraftThree.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sarah\Project2-Group2\misc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TONRIN\Project2-Group2\misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3801FCD-F3F9-4003-B774-C5F23CBC502E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="109">
   <si>
     <t>ToyName</t>
   </si>
@@ -365,11 +366,14 @@
   <si>
     <t>Question5</t>
   </si>
+  <si>
+    <t>img</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -805,7 +809,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B6:Q20"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -1378,7 +1382,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:R27"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
@@ -2050,11 +2054,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:N16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A2:O16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2063,15 +2067,15 @@
     <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="14" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>87</v>
       </c>
@@ -2079,12 +2083,12 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>89</v>
       </c>
@@ -2092,12 +2096,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>87</v>
       </c>
@@ -2120,33 +2124,36 @@
         <v>61</v>
       </c>
       <c r="H11" t="s">
+        <v>108</v>
+      </c>
+      <c r="I11" t="s">
         <v>96</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>97</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>103</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>104</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>105</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>106</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>99</v>
       </c>
